--- a/test/test_methodesA_L.xlsx
+++ b/test/test_methodesA_L.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annlo\Desktop\2 ème\dev web\projet restaurant\proj_rest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annlo\Desktop\2 ème\dev web\projet restaurant\proj_rest\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FFE381-ACFC-4196-8553-B3C5799077D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACD9721-3C92-4619-A2BA-28745DF51474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{1354A0A0-881E-4769-A6DC-5340EBFCA0E1}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{1354A0A0-881E-4769-A6DC-5340EBFCA0E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
   <si>
     <t>Nom de la méthode</t>
   </si>
@@ -237,6 +237,36 @@
   </si>
   <si>
     <t>2024-12-07 15:30:00</t>
+  </si>
+  <si>
+    <t>ne modifie pas la réservation</t>
+  </si>
+  <si>
+    <t>ne modifie rien dans la réservation</t>
+  </si>
+  <si>
+    <t>le nombre de personne n'est pas valide (nombre à vigule)</t>
+  </si>
+  <si>
+    <t>vérification si new_commande est une instance de commande</t>
+  </si>
+  <si>
+    <t>new_commande est bien une instance de commande</t>
+  </si>
+  <si>
+    <t>new_commande est None</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">etat est une chaine </t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>etat est None</t>
   </si>
 </sst>
 </file>
@@ -293,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -306,12 +336,17 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,16 +681,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB10AFFB-FDF9-4B03-82ED-5EBB45FEAD43}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="57" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
   </cols>
@@ -664,14 +699,14 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -940,225 +975,320 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="3">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="3">
-        <v>5.5</v>
+        <v>38</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="D30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="3">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="3">
-        <v>5</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="C37" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="3">
-        <v>0</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="3">
-        <v>6</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B37" s="7">
-        <v>9</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C39" s="3">
-        <v>-5</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="3">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" s="6">
+        <v>9</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B47" s="6">
         <v>9</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C47" s="3">
         <v>-5</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1" t="s">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
         <v>28</v>
       </c>
     </row>

--- a/test/test_methodesA_L.xlsx
+++ b/test/test_methodesA_L.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annlo\Desktop\2 ème\dev web\projet restaurant\proj_rest\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACD9721-3C92-4619-A2BA-28745DF51474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4224CFD2-6A47-4CAC-89D5-C1F083DB9E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{1354A0A0-881E-4769-A6DC-5340EBFCA0E1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1354A0A0-881E-4769-A6DC-5340EBFCA0E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
   <si>
     <t>Nom de la méthode</t>
   </si>
@@ -267,6 +267,15 @@
   </si>
   <si>
     <t>etat est None</t>
+  </si>
+  <si>
+    <t>places est un nombre entier en chaine de caractère</t>
+  </si>
+  <si>
+    <t>"8"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pas de plat </t>
   </si>
 </sst>
 </file>
@@ -681,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB10AFFB-FDF9-4B03-82ED-5EBB45FEAD43}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -809,68 +818,68 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="3">
-        <v>5.4</v>
+        <v>-5</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -880,10 +889,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="B16" s="3">
+        <v>5.4</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -892,68 +901,68 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="3">
-        <v>5</v>
+        <v>62</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -963,10 +972,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3">
-        <v>5.5</v>
+        <v>33</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -976,10 +985,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>75</v>
+        <v>35</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -989,10 +998,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>73</v>
+        <v>36</v>
+      </c>
+      <c r="B25" s="3">
+        <v>5.5</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1001,92 +1010,92 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="D31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="3">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="D32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="3">
-        <v>5.5</v>
+        <v>39</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1096,10 +1105,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>73</v>
+        <v>40</v>
+      </c>
+      <c r="B34" s="3">
+        <v>5</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1108,139 +1117,135 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="3">
+        <v>5.5</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B39" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="3">
-        <v>5</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="1"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C41" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="6">
-        <v>9</v>
-      </c>
-      <c r="C42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="3">
+        <v>6</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="6">
+        <v>9</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
@@ -1249,13 +1254,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C45" s="3">
-        <v>-5</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
@@ -1264,13 +1269,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C46" s="3">
-        <v>5.5</v>
+      <c r="C46" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
@@ -1279,16 +1284,46 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="6">
-        <v>9</v>
+        <v>48</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="C47" s="3">
         <v>-5</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="6">
+        <v>9</v>
+      </c>
+      <c r="C49" s="3">
+        <v>-5</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
         <v>28</v>
       </c>
     </row>
